--- a/data/trans_dic/P1402-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1402-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1010908597066562</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09589734552362243</v>
+        <v>0.09589734552362245</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.09426625389138338</v>
@@ -697,7 +697,7 @@
         <v>0.1008968813085409</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1027414704363204</v>
+        <v>0.1027414704363205</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06076991768618242</v>
+        <v>0.06094408127908024</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05744807608819711</v>
+        <v>0.05682437929315329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0847923942989517</v>
+        <v>0.08412756681088331</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07304549084687202</v>
+        <v>0.07333262876925278</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07486466149578108</v>
+        <v>0.07569337695545035</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08936394044331181</v>
+        <v>0.08882413265250728</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08282573202417053</v>
+        <v>0.08478792556194324</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09054762167644193</v>
+        <v>0.08988085742979159</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07558787905579067</v>
+        <v>0.07563227383315026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.077513252017434</v>
+        <v>0.07729153740446799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08731701137281037</v>
+        <v>0.08775108997927518</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08712323549075759</v>
+        <v>0.0902032405670784</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1060593096189776</v>
+        <v>0.1060249655663207</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09049694608859624</v>
+        <v>0.0893900935465603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1213745953534016</v>
+        <v>0.118559048810132</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1211688505853079</v>
+        <v>0.1228312588708953</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1136979860201966</v>
+        <v>0.1145390661280155</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1267398702289448</v>
+        <v>0.1266785612247096</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1178454947644323</v>
+        <v>0.1211422135388447</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.127950305189478</v>
+        <v>0.1310859802359732</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1065771532838674</v>
+        <v>0.1047001861372388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1026750973804734</v>
+        <v>0.1030379849533142</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1148609652803816</v>
+        <v>0.1132608050806679</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1186023806212604</v>
+        <v>0.1209213201436755</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.07881717042916155</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.09273678426160976</v>
+        <v>0.09273678426160975</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05921794328702176</v>
@@ -833,7 +833,7 @@
         <v>0.08525521424931332</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.09672580436750253</v>
+        <v>0.09672580436750251</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04458902915482124</v>
+        <v>0.04353401029511896</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05590979193099058</v>
+        <v>0.05579122798862039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0757676148736684</v>
+        <v>0.07502880714604611</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08466749096358787</v>
+        <v>0.08333809415527067</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04939322001574453</v>
+        <v>0.04845449086409908</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07519741272732508</v>
+        <v>0.07480942803365044</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06065717531850434</v>
+        <v>0.06242390968298024</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0805556460099465</v>
+        <v>0.07925300814697615</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04930673959508227</v>
+        <v>0.04977310332148472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0686358427426344</v>
+        <v>0.07096481541133448</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07232237336691463</v>
+        <v>0.07351779564353719</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08596407786513433</v>
+        <v>0.08579290224886581</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07190747961196474</v>
+        <v>0.07016565601572036</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09114901789006144</v>
+        <v>0.0896513102911651</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1120167956440209</v>
+        <v>0.1143649244237074</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1192741431754641</v>
+        <v>0.1212464543226733</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07902759924973192</v>
+        <v>0.07845416195687993</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1096604629583565</v>
+        <v>0.1105544347218394</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09821851463406267</v>
+        <v>0.0986131709783582</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1055831022080218</v>
+        <v>0.1049535805497899</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06923493071838617</v>
+        <v>0.06987088118141228</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09463961579391819</v>
+        <v>0.0956427497918777</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09877763996213791</v>
+        <v>0.09987565845163296</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1085346925193511</v>
+        <v>0.1076678313621327</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06500856461295038</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09701309898006788</v>
+        <v>0.09701309898006787</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05779571336922378</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03253734232678888</v>
+        <v>0.03222698847004782</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06610123404401586</v>
+        <v>0.06873187240885069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04893245469890707</v>
+        <v>0.05008754329836689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08239136116732601</v>
+        <v>0.08259886266049908</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04284982471330041</v>
+        <v>0.04415063873604377</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05263799868616392</v>
+        <v>0.05392785178161524</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06070547702716458</v>
+        <v>0.06069919311057313</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0504633260934376</v>
+        <v>0.05115736321382142</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04059785490021503</v>
+        <v>0.04096140170977908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06603077722805506</v>
+        <v>0.06556246467147929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05888840028817167</v>
+        <v>0.05829138596626411</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06948339312458232</v>
+        <v>0.0695831076741103</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05487694655390238</v>
+        <v>0.05461397771501499</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1060364129996001</v>
+        <v>0.1069893579189602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08322289836863664</v>
+        <v>0.08383654812001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.113920519529736</v>
+        <v>0.1149626127308936</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07342297815288697</v>
+        <v>0.0733135699490492</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08820268918114461</v>
+        <v>0.08769205082228981</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1025925209278484</v>
+        <v>0.1003299817688873</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07314461581286913</v>
+        <v>0.07379875949111236</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05965718932778487</v>
+        <v>0.06049228665681938</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0916952123329792</v>
+        <v>0.09139538122849805</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08646770760055968</v>
+        <v>0.08566915706356464</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08948266728778384</v>
+        <v>0.08875203238119199</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.07038725933384082</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06848739446064074</v>
+        <v>0.06848739446064073</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03098103627591077</v>
+        <v>0.02892213273368012</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04764292044265463</v>
+        <v>0.04628797970521162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05998257351221382</v>
+        <v>0.06133127792642573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06482856797302083</v>
+        <v>0.06472207098772498</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01869341177329058</v>
+        <v>0.01822403886364731</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03808107711166574</v>
+        <v>0.03955788489084605</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03835507668297555</v>
+        <v>0.03646609941604272</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04692259346958622</v>
+        <v>0.04641962414385676</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02929470062163595</v>
+        <v>0.03015233587727552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0489212104796534</v>
+        <v>0.04836277794764313</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0547885554107618</v>
+        <v>0.0550256464676356</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05891361494352049</v>
+        <v>0.0586245088985024</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07023547740105104</v>
+        <v>0.06952677508778747</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09330814742954807</v>
+        <v>0.09299726807828211</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.110098436144578</v>
+        <v>0.1104677132260268</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09725447393176551</v>
+        <v>0.09508439490978843</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05952855073186593</v>
+        <v>0.06041170039541416</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08213681939537465</v>
+        <v>0.08230084949792456</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08510317093262805</v>
+        <v>0.08159428440937114</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06954454461953258</v>
+        <v>0.06972754956850953</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05938896180225696</v>
+        <v>0.05796970825800636</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08041432717201617</v>
+        <v>0.08050267879013709</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08828783156495913</v>
+        <v>0.0875518148168643</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07946279215162383</v>
+        <v>0.0792510364978915</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.08353026168996942</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07774261300271354</v>
+        <v>0.07774261300271353</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06099693695288615</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04765336340540163</v>
+        <v>0.04722132723212781</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06586853210910538</v>
+        <v>0.06510341786077049</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07785308046826633</v>
+        <v>0.07828801748722926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08417738995761401</v>
+        <v>0.08471096058975365</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05843512384437482</v>
+        <v>0.05857867930910862</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07789908815255024</v>
+        <v>0.07670709066828969</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0739277772700879</v>
+        <v>0.07464861032040548</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07180826879641321</v>
+        <v>0.07123389040848933</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05534750755511467</v>
+        <v>0.05521483740667835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07440470182369656</v>
+        <v>0.07433477506388375</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07881551787368091</v>
+        <v>0.07932231298360173</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08001578915216999</v>
+        <v>0.07955871693649359</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06313416301915044</v>
+        <v>0.0627249687796026</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08470395371476026</v>
+        <v>0.0844111028638465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0968438626078667</v>
+        <v>0.09798194175294987</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1020970571255997</v>
+        <v>0.1032343351393158</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07614574855283213</v>
+        <v>0.07599402933531212</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09714314330830992</v>
+        <v>0.09614846548967868</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09455266458104179</v>
+        <v>0.09395000683825522</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08515185209137095</v>
+        <v>0.08502582182580894</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06684541497282287</v>
+        <v>0.0670109671896042</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0884528219388515</v>
+        <v>0.08812245376136355</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09243902736624994</v>
+        <v>0.09362474100101195</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09078115822310893</v>
+        <v>0.09088885065093096</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35498</v>
+        <v>35600</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>59972</v>
+        <v>59321</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>95646</v>
+        <v>94896</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36077</v>
+        <v>36219</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>69050</v>
+        <v>69814</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>99967</v>
+        <v>99363</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>104324</v>
+        <v>106796</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>56464</v>
+        <v>56048</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>113871</v>
+        <v>113938</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>167629</v>
+        <v>167150</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>208474</v>
+        <v>209511</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>97358</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61954</v>
+        <v>61934</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>94473</v>
+        <v>93317</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>136910</v>
+        <v>133734</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59845</v>
+        <v>60666</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>104867</v>
+        <v>105643</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>141778</v>
+        <v>141709</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>148434</v>
+        <v>152586</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79787</v>
+        <v>81743</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>160556</v>
+        <v>157728</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>222044</v>
+        <v>222829</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>274237</v>
+        <v>270417</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>132535</v>
+        <v>135127</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>48062</v>
+        <v>46925</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>54628</v>
+        <v>54512</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>68860</v>
+        <v>68188</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>81207</v>
+        <v>79932</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>52235</v>
+        <v>51242</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>82140</v>
+        <v>81716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>61050</v>
+        <v>62828</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>89888</v>
+        <v>88434</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>105291</v>
+        <v>106287</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>142035</v>
+        <v>146855</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>138519</v>
+        <v>140809</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>178374</v>
+        <v>178019</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>77509</v>
+        <v>75631</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>89059</v>
+        <v>87596</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>101804</v>
+        <v>103938</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>114400</v>
+        <v>116291</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>83575</v>
+        <v>82968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>119785</v>
+        <v>120762</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>98854</v>
+        <v>99252</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>117815</v>
+        <v>117112</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>147846</v>
+        <v>149205</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>195847</v>
+        <v>197923</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>189189</v>
+        <v>191292</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>225208</v>
+        <v>223409</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36494</v>
+        <v>36146</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58507</v>
+        <v>60836</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40309</v>
+        <v>41260</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>86221</v>
+        <v>86438</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>42590</v>
+        <v>43883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46100</v>
+        <v>47230</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46808</v>
+        <v>46803</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>52765</v>
+        <v>53491</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>85886</v>
+        <v>86655</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>116274</v>
+        <v>115450</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>93916</v>
+        <v>92964</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>145366</v>
+        <v>145575</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61550</v>
+        <v>61255</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>93854</v>
+        <v>94698</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68556</v>
+        <v>69061</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>119215</v>
+        <v>120306</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>72978</v>
+        <v>72869</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>77248</v>
+        <v>76800</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>79105</v>
+        <v>77360</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>76481</v>
+        <v>77165</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>126207</v>
+        <v>127973</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>161467</v>
+        <v>160939</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>137900</v>
+        <v>136627</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>187207</v>
+        <v>185678</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13855</v>
+        <v>12934</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23965</v>
+        <v>23284</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>30393</v>
+        <v>31077</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>63200</v>
+        <v>63096</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6377</v>
+        <v>6217</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17241</v>
+        <v>17909</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18782</v>
+        <v>17857</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>42599</v>
+        <v>42142</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>23095</v>
+        <v>23771</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>46757</v>
+        <v>46223</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>54591</v>
+        <v>54827</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>110918</v>
+        <v>110374</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31409</v>
+        <v>31092</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>46936</v>
+        <v>46780</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>55787</v>
+        <v>55974</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>94811</v>
+        <v>92695</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20309</v>
+        <v>20610</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37186</v>
+        <v>37261</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41675</v>
+        <v>39957</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>63136</v>
+        <v>63302</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>46820</v>
+        <v>45701</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>76857</v>
+        <v>76941</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>87970</v>
+        <v>87236</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>149606</v>
+        <v>149208</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>153960</v>
+        <v>152564</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>224555</v>
+        <v>221947</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>262153</v>
+        <v>263618</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>292464</v>
+        <v>294318</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>193711</v>
+        <v>194187</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>275725</v>
+        <v>271506</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>260728</v>
+        <v>263270</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>265181</v>
+        <v>263060</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>362294</v>
+        <v>361425</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>517013</v>
+        <v>516527</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>543360</v>
+        <v>546854</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>573496</v>
+        <v>570220</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>203976</v>
+        <v>202654</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>288768</v>
+        <v>287770</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>326101</v>
+        <v>329933</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>354724</v>
+        <v>358675</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>252421</v>
+        <v>251918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>343839</v>
+        <v>340319</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>333468</v>
+        <v>331342</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>314457</v>
+        <v>313992</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>437557</v>
+        <v>438640</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>614628</v>
+        <v>612333</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>637282</v>
+        <v>645456</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>650654</v>
+        <v>651426</v>
       </c>
     </row>
     <row r="24">
